--- a/items.xlsx
+++ b/items.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">tabla</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">tefter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kufer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moliv</t>
   </si>
 </sst>
 </file>
@@ -132,10 +138,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -184,7 +190,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>42.89</v>
+        <v>62.89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,6 +202,28 @@
       </c>
       <c r="C5" s="0" t="n">
         <v>249.99</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1399.99</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>8.99</v>
       </c>
     </row>
   </sheetData>
